--- a/DecisionNG/Permissions V710.xlsx
+++ b/DecisionNG/Permissions V710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gil.s\Documents\Decision Materials\Permissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varsha.Chitray\Documents\TestComplete 14 Projects\t\SR\DecisionNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594A257-0C0B-4033-AF43-7486F1C38614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43493089-8CC0-4083-971C-A1B0C05EC98C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permission Groups" sheetId="11" r:id="rId1"/>
@@ -21,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3498,7 +3496,6 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{696B5B4D-61D7-4397-AA3D-EB69BFED9106}" name="Table5" displayName="Table5" ref="A1:V32" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:V32" xr:uid="{544AA2C6-DD74-440E-821D-BF96BAA9907D}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{FF3DD6F5-3D8F-4DCD-9EA7-9EB496D5DCD5}" name="Permission Groups" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{7E23DCCD-114A-41AE-9E6D-EC7CB95DC8FA}" name="Count" dataDxfId="20">
@@ -3853,7 +3850,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10315,11 +10312,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11493,6 +11490,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5F9C98B0446524485B7B0793D0C592D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc764cdfd294f253170a8f2113b6a2af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbe8f951-a63a-42f1-b099-18567e90cdee" xmlns:ns3="7913f9c9-e70a-4013-af8e-9f05466768a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4145701771e9a9f0231b8fb8c94960c" ns2:_="" ns3:_="">
     <xsd:import namespace="bbe8f951-a63a-42f1-b099-18567e90cdee"/>
@@ -11709,23 +11721,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8169284-6018-4D57-A320-40F18C72BC36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F83CFEB-79B3-4453-B164-B407632E4B21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11745,9 +11746,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F83CFEB-79B3-4453-B164-B407632E4B21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8169284-6018-4D57-A320-40F18C72BC36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbe8f951-a63a-42f1-b099-18567e90cdee"/>
+    <ds:schemaRef ds:uri="7913f9c9-e70a-4013-af8e-9f05466768a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DecisionNG/Permissions V710.xlsx
+++ b/DecisionNG/Permissions V710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gil.s\Documents\Decision Materials\Permissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Drive - RITA\WIP\7.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594A257-0C0B-4033-AF43-7486F1C38614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663DB650-D8E1-4D26-964B-051ADDC38134}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permission Groups" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="320">
   <si>
     <t>ADMIN</t>
   </si>
@@ -991,19 +991,13 @@
   </si>
   <si>
     <t>Grants permission to unretire Deployment Descriptor</t>
-  </si>
-  <si>
-    <t>ADMIN_MONITORING</t>
-  </si>
-  <si>
-    <t>Grants permission to access DM Java Monitoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,12 +1015,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1189,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1242,10 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3452,8 +3436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFE11604-C411-4766-A0D7-C9B2072928E2}" name="Table4" displayName="Table4" ref="A1:AH134" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="A1:AH134" xr:uid="{EE2AD02C-6C53-4914-9795-D14FAD2F7D2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFE11604-C411-4766-A0D7-C9B2072928E2}" name="Table4" displayName="Table4" ref="A1:AH133" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:AH133" xr:uid="{EE2AD02C-6C53-4914-9795-D14FAD2F7D2B}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{6884618F-0804-45D4-BBF3-CFC14A9DABC4}" name="Permissions" dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{3BDD6A53-3DAC-4ABD-B40B-A6B8991B586B}" name="Count" dataDxfId="59">
@@ -3851,13 +3835,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531EFDF-FA4C-438D-BC4A-CA3EC34A6F8A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH134"/>
+  <dimension ref="A1:AH133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,12 +3985,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" ref="B2:B36" si="0">COUNTA(D2:AH2)</f>
+        <f t="shared" ref="B2:B35" si="0">COUNTA(D2:AH2)</f>
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4054,21 +4038,23 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="B3" s="8">
-        <f>COUNTA(D3:AH3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>321</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4092,9 +4078,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -4103,21 +4087,19 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4127,7 +4109,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -4150,14 +4134,14 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
@@ -4168,13 +4152,13 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -4197,27 +4181,27 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -4244,25 +4228,25 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -4291,14 +4275,14 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>60</v>
@@ -4307,9 +4291,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -4332,28 +4314,34 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -4377,35 +4365,33 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4434,14 +4420,14 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>60</v>
@@ -4452,9 +4438,7 @@
       <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4483,14 +4467,14 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>60</v>
@@ -4498,9 +4482,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4512,7 +4494,9 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -4530,14 +4514,14 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>60</v>
@@ -4557,10 +4541,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -4577,14 +4561,14 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>60</v>
@@ -4605,11 +4589,11 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -4624,14 +4608,14 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>60</v>
@@ -4651,12 +4635,12 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -4671,14 +4655,14 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>60</v>
@@ -4698,14 +4682,14 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -4718,14 +4702,14 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>60</v>
@@ -4735,7 +4719,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -4750,9 +4736,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -4765,14 +4749,14 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>60</v>
@@ -4782,10 +4766,10 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -4812,14 +4796,14 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTA(D19:AH19)</f>
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>60</v>
@@ -4830,9 +4814,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -4845,7 +4827,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -4859,14 +4843,14 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTA(D20:AH20)</f>
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>60</v>
@@ -4906,14 +4890,14 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="B21" s="8">
-        <f>COUNTA(D21:AH21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>60</v>
@@ -4925,7 +4909,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -4937,9 +4923,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -4953,14 +4937,14 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>60</v>
@@ -4970,11 +4954,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -5000,14 +4984,14 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>60</v>
@@ -5017,10 +5001,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -5047,14 +5031,14 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -5065,9 +5049,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -5084,7 +5066,9 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -5094,14 +5078,14 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -5113,7 +5097,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -5129,9 +5115,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
@@ -5141,14 +5125,14 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
@@ -5160,10 +5144,10 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -5188,14 +5172,14 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -5208,10 +5192,10 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -5235,14 +5219,14 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B28" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>60</v>
@@ -5282,14 +5266,14 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>60</v>
@@ -5299,13 +5283,13 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -5329,26 +5313,26 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B30" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -5360,7 +5344,9 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -5376,22 +5362,20 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5399,7 +5383,9 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -5407,9 +5393,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -5425,20 +5409,22 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5446,9 +5432,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -5462,7 +5446,9 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -5472,22 +5458,20 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B33" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5503,15 +5487,15 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
@@ -5521,14 +5505,14 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B34" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>60</v>
@@ -5550,10 +5534,10 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -5568,14 +5552,14 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B35" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>60</v>
@@ -5595,12 +5579,12 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -5615,14 +5599,14 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B36:B67" si="1">COUNTA(D36:AH36)</f>
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>60</v>
@@ -5662,20 +5646,22 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="B37" s="8">
-        <f t="shared" ref="B37:B68" si="1">COUNTA(D37:AH37)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -5689,9 +5675,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -5699,7 +5683,9 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -5709,14 +5695,14 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -5758,31 +5744,33 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -5795,9 +5783,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
@@ -5807,14 +5793,14 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>60</v>
@@ -5824,11 +5810,11 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
@@ -5856,14 +5842,14 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>60</v>
@@ -5873,18 +5859,16 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -5905,14 +5889,14 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>60</v>
@@ -5923,15 +5907,17 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P42" s="7"/>
-      <c r="Q42" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -5952,14 +5938,14 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B43" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>60</v>
@@ -5969,16 +5955,14 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
@@ -6001,14 +5985,14 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>60</v>
@@ -6018,14 +6002,14 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="O44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
@@ -6048,14 +6032,14 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -6070,9 +6054,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
@@ -6089,20 +6071,22 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
+      <c r="AF45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>60</v>
@@ -6117,7 +6101,9 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
@@ -6134,22 +6120,20 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-      <c r="AF46" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>60</v>
@@ -6189,14 +6173,14 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="B48" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>60</v>
@@ -6207,7 +6191,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -6236,14 +6222,14 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>60</v>
@@ -6254,9 +6240,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -6285,14 +6269,14 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>60</v>
@@ -6332,14 +6316,14 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>60</v>
@@ -6379,14 +6363,14 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>60</v>
@@ -6426,14 +6410,14 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>60</v>
@@ -6444,13 +6428,13 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -6473,14 +6457,14 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>60</v>
@@ -6491,9 +6475,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -6511,7 +6493,9 @@
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
+      <c r="AC54" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
@@ -6520,14 +6504,14 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B55" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>60</v>
@@ -6547,7 +6531,9 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
+      <c r="T55" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
@@ -6556,9 +6542,7 @@
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
-      <c r="AC55" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
@@ -6567,14 +6551,14 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B56" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>60</v>
@@ -6589,14 +6573,14 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="O56" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
@@ -6614,14 +6598,14 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>60</v>
@@ -6661,14 +6645,14 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B58" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>60</v>
@@ -6708,14 +6692,14 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>60</v>
@@ -6755,14 +6739,14 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="B60" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>60</v>
@@ -6802,14 +6786,14 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B61" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>60</v>
@@ -6849,14 +6833,14 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B62" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>60</v>
@@ -6896,14 +6880,14 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="B63" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>60</v>
@@ -6918,10 +6902,10 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -6943,14 +6927,14 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="B64" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>60</v>
@@ -6966,9 +6950,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -6981,7 +6963,9 @@
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
+      <c r="AC64" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
@@ -6990,14 +6974,14 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>60</v>
@@ -7007,7 +6991,9 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -7026,9 +7012,7 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
-      <c r="AC65" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
@@ -7037,14 +7021,14 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B66" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>60</v>
@@ -7054,9 +7038,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -7064,7 +7046,9 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
+      <c r="R66" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -7084,14 +7068,14 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B67" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>60</v>
@@ -7109,9 +7093,7 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -7121,7 +7103,9 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
@@ -7131,14 +7115,14 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B99" si="2">COUNTA(D68:AH68)</f>
         <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>60</v>
@@ -7178,29 +7162,35 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="B69" s="8">
-        <f t="shared" ref="B69:B100" si="2">COUNTA(D69:AH69)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
+      <c r="O69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
@@ -7208,15 +7198,21 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="W69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
+      <c r="Z69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AC69" s="7"/>
+      <c r="AC69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
@@ -7225,35 +7221,29 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" s="8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
@@ -7261,21 +7251,15 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7" t="s">
         <v>60</v>
       </c>
       <c r="AA70" s="7"/>
-      <c r="AB70" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
@@ -7284,14 +7268,14 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>60</v>
@@ -7317,10 +7301,10 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
-      <c r="Z71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -7331,14 +7315,14 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B72" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>60</v>
@@ -7378,14 +7362,14 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>60</v>
@@ -7411,10 +7395,10 @@
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z73" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
@@ -7425,14 +7409,14 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>60</v>
@@ -7458,10 +7442,10 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
@@ -7472,14 +7456,14 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B75" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>60</v>
@@ -7502,13 +7486,13 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
+      <c r="W75" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
-      <c r="AA75" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
@@ -7519,14 +7503,14 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B76" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>60</v>
@@ -7549,11 +7533,11 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
-      <c r="W76" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W76" s="7"/>
       <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
+      <c r="Y76" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
@@ -7566,14 +7550,14 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B77" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>60</v>
@@ -7613,14 +7597,14 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="B78" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>60</v>
@@ -7640,14 +7624,14 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
+      <c r="T78" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
-      <c r="Y78" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
@@ -7660,14 +7644,14 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B79" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>60</v>
@@ -7687,14 +7671,14 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
-      <c r="T79" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+      <c r="Y79" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
@@ -7707,14 +7691,14 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>60</v>
@@ -7737,11 +7721,11 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
+      <c r="W80" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X80" s="7"/>
-      <c r="Y80" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
@@ -7754,14 +7738,14 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B81" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>60</v>
@@ -7784,11 +7768,11 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
-      <c r="W81" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W81" s="7"/>
       <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
+      <c r="Y81" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
@@ -7801,14 +7785,14 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="B82" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>60</v>
@@ -7819,7 +7803,9 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -7833,9 +7819,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
-      <c r="Y82" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
@@ -7848,14 +7832,14 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="B83" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>60</v>
@@ -7865,10 +7849,10 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -7895,14 +7879,14 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>60</v>
@@ -7912,10 +7896,10 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -7942,27 +7926,27 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -7989,23 +7973,23 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -8036,26 +8020,26 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="B87" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -8064,7 +8048,9 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -8083,14 +8069,14 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B88" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>60</v>
@@ -8100,9 +8086,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -8132,14 +8116,14 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>60</v>
@@ -8158,12 +8142,12 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
+      <c r="V89" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
@@ -8179,14 +8163,14 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>60</v>
@@ -8226,14 +8210,14 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B91" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>60</v>
@@ -8255,16 +8239,16 @@
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
-      <c r="AC91" s="7"/>
+      <c r="AC91" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
@@ -8273,14 +8257,14 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B92" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>60</v>
@@ -8320,14 +8304,14 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B93" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>60</v>
@@ -8350,15 +8334,15 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
+      <c r="W93" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
-      <c r="AC93" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
@@ -8367,14 +8351,14 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B94" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>60</v>
@@ -8397,10 +8381,10 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
-      <c r="W94" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="X94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
@@ -8414,14 +8398,14 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>60</v>
@@ -8448,7 +8432,9 @@
       <c r="X95" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y95" s="7"/>
+      <c r="Y95" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="7"/>
@@ -8461,14 +8447,14 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B96" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>60</v>
@@ -8480,7 +8466,9 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="L96" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
@@ -8492,12 +8480,8 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
-      <c r="X96" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y96" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
@@ -8510,14 +8494,14 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B97" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>60</v>
@@ -8557,14 +8541,14 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>60</v>
@@ -8576,9 +8560,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
@@ -8593,7 +8575,9 @@
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
+      <c r="AA98" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -8604,14 +8588,14 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>60</v>
@@ -8651,14 +8635,14 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B100:B133" si="3">COUNTA(D100:AH100)</f>
         <v>2</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>60</v>
@@ -8684,10 +8668,10 @@
       <c r="W100" s="7"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z100" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
@@ -8698,14 +8682,14 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B101" s="8">
-        <f t="shared" ref="B101:B134" si="3">COUNTA(D101:AH101)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>60</v>
@@ -8731,10 +8715,10 @@
       <c r="W101" s="7"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
-      <c r="Z101" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB101" s="7"/>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
@@ -8745,14 +8729,14 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B102" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>60</v>
@@ -8778,10 +8762,10 @@
       <c r="W102" s="7"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z102" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA102" s="7"/>
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
@@ -8792,14 +8776,14 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>60</v>
@@ -8825,11 +8809,11 @@
       <c r="W103" s="7"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
-      <c r="Z103" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
+      <c r="AB103" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
       <c r="AE103" s="7"/>
@@ -8839,14 +8823,14 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B104" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>60</v>
@@ -8886,14 +8870,14 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B105" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>60</v>
@@ -8933,14 +8917,14 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="B106" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>60</v>
@@ -8968,11 +8952,11 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
       <c r="AA106" s="7"/>
-      <c r="AB106" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
-      <c r="AD106" s="7"/>
+      <c r="AD106" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AE106" s="7"/>
       <c r="AF106" s="7"/>
       <c r="AG106" s="7"/>
@@ -8980,14 +8964,14 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B107" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>60</v>
@@ -9017,71 +9001,71 @@
       <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
       <c r="AC107" s="7"/>
-      <c r="AD107" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AF107" s="7"/>
       <c r="AG107" s="7"/>
       <c r="AH107" s="7"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="7"/>
-      <c r="AD108" s="7"/>
-      <c r="AE108" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF108" s="7"/>
-      <c r="AG108" s="7"/>
-      <c r="AH108" s="7"/>
+    <row r="108" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="19">
+        <f t="shared" ref="B108" si="4">COUNTA(D108:AH108)</f>
+        <v>2</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="20"/>
+      <c r="AB108" s="20"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="20"/>
+      <c r="AE108" s="20"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
     </row>
     <row r="109" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B109" s="19">
-        <f t="shared" ref="B109" si="4">COUNTA(D109:AH109)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D109" s="20" t="s">
         <v>60</v>
@@ -9091,9 +9075,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
-      <c r="J109" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
@@ -9117,65 +9099,67 @@
       <c r="AE109" s="20"/>
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
-      <c r="AH109" s="20"/>
-    </row>
-    <row r="110" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B110" s="19">
+      <c r="AH109" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="20"/>
-      <c r="W110" s="20"/>
-      <c r="X110" s="20"/>
-      <c r="Y110" s="20"/>
-      <c r="Z110" s="20"/>
-      <c r="AA110" s="20"/>
-      <c r="AB110" s="20"/>
-      <c r="AC110" s="20"/>
-      <c r="AD110" s="20"/>
-      <c r="AE110" s="20"/>
-      <c r="AF110" s="20"/>
-      <c r="AG110" s="20"/>
-      <c r="AH110" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="C110" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="7"/>
+      <c r="AC110" s="7"/>
+      <c r="AD110" s="7"/>
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH110" s="7"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B111" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>60</v>
@@ -9215,14 +9199,14 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>60</v>
@@ -9249,27 +9233,27 @@
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
+      <c r="AA112" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
       <c r="AD112" s="7"/>
       <c r="AE112" s="7"/>
       <c r="AF112" s="7"/>
-      <c r="AG112" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AG112" s="7"/>
       <c r="AH112" s="7"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B113" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>60</v>
@@ -9295,10 +9279,10 @@
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z113" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA113" s="7"/>
       <c r="AB113" s="7"/>
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
@@ -9309,14 +9293,14 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>60</v>
@@ -9342,10 +9326,10 @@
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
-      <c r="Z114" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
       <c r="AD114" s="7"/>
@@ -9356,21 +9340,23 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="B115" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -9390,9 +9376,7 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
-      <c r="AA115" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA115" s="7"/>
       <c r="AB115" s="7"/>
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
@@ -9403,14 +9387,14 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="B116" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>60</v>
@@ -9450,23 +9434,23 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F117" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -9497,23 +9481,23 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B118" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -9544,23 +9528,23 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="B119" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -9591,23 +9575,23 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B120" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E120" s="7"/>
-      <c r="F120" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -9638,23 +9622,21 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="B121" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -9664,7 +9646,9 @@
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
+      <c r="Q121" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
@@ -9685,20 +9669,22 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="B122" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -9709,9 +9695,7 @@
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
-      <c r="Q122" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
@@ -9732,23 +9716,23 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B123" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -9779,26 +9763,28 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B124" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -9814,10 +9800,14 @@
       <c r="W124" s="7"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
-      <c r="Z124" s="7"/>
+      <c r="Z124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
-      <c r="AC124" s="7"/>
+      <c r="AC124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD124" s="7"/>
       <c r="AE124" s="7"/>
       <c r="AF124" s="7"/>
@@ -9826,28 +9816,24 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="B125" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E125" s="7"/>
-      <c r="F125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
-      <c r="J125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -9863,9 +9849,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
-      <c r="Z125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z125" s="7"/>
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
       <c r="AC125" s="7" t="s">
@@ -9879,20 +9863,22 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="B126" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -9915,9 +9901,7 @@
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
-      <c r="AC126" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC126" s="7"/>
       <c r="AD126" s="7"/>
       <c r="AE126" s="7"/>
       <c r="AF126" s="7"/>
@@ -9926,23 +9910,23 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B127" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="7"/>
-      <c r="F127" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
@@ -9973,23 +9957,23 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="B128" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F128" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -10020,23 +10004,23 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -10067,14 +10051,14 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B130" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>60</v>
@@ -10114,23 +10098,21 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B131" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -10151,7 +10133,9 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
       <c r="AA131" s="7"/>
-      <c r="AB131" s="7"/>
+      <c r="AB131" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC131" s="7"/>
       <c r="AD131" s="7"/>
       <c r="AE131" s="7"/>
@@ -10161,14 +10145,14 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B132" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>60</v>
@@ -10208,21 +10192,23 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="B133" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="G133" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -10243,65 +10229,17 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
       <c r="AA133" s="7"/>
-      <c r="AB133" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC133" s="7"/>
+      <c r="AB133" s="7"/>
+      <c r="AC133" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD133" s="7"/>
       <c r="AE133" s="7"/>
       <c r="AF133" s="7"/>
       <c r="AG133" s="7"/>
       <c r="AH133" s="7"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7"/>
-      <c r="T134" s="7"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
-      <c r="Y134" s="7"/>
-      <c r="Z134" s="7"/>
-      <c r="AA134" s="7"/>
-      <c r="AB134" s="7"/>
-      <c r="AC134" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD134" s="7"/>
-      <c r="AE134" s="7"/>
-      <c r="AF134" s="7"/>
-      <c r="AG134" s="7"/>
-      <c r="AH134" s="7"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10319,7 +10257,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11493,28 +11431,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5F9C98B0446524485B7B0793D0C592D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc764cdfd294f253170a8f2113b6a2af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbe8f951-a63a-42f1-b099-18567e90cdee" xmlns:ns3="7913f9c9-e70a-4013-af8e-9f05466768a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4145701771e9a9f0231b8fb8c94960c" ns2:_="" ns3:_="">
-    <xsd:import namespace="bbe8f951-a63a-42f1-b099-18567e90cdee"/>
-    <xsd:import namespace="7913f9c9-e70a-4013-af8e-9f05466768a3"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF55106CB3AE5E418ACED55629FA4CAD" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c70cd941c6196a5e8e8d6e322e07c36">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20c07018-649f-4895-a695-502b96016c98" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7" xmlns:ns5="92baac2b-0bf5-414c-80cd-6ea27a051d4c" xmlns:ns7="c442a1e3-1e61-4f8e-83e6-c318ef4c6175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd36e40bf8e0f246ba80e5602b2bb61" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns7:_="">
+    <xsd:import namespace="20c07018-649f-4895-a695-502b96016c98"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
+    <xsd:import namespace="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7"/>
+    <xsd:import namespace="92baac2b-0bf5-414c-80cd-6ea27a051d4c"/>
+    <xsd:import namespace="c442a1e3-1e61-4f8e-83e6-c318ef4c6175"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:IconOverlay" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns5:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns5:LastSharedByUser" minOccurs="0"/>
+                <xsd:element ref="ns5:LastSharedByTime" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11522,68 +11484,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbe8f951-a63a-42f1-b099-18567e90cdee" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20c07018-649f-4895-a695-502b96016c98" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7913f9c9-e70a-4013-af8e-9f05466768a3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -11602,11 +11506,103 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="IconOverlay" ma:index="10" nillable="true" ma:displayName="IconOverlay" ma:hidden="true" ma:internalName="IconOverlay">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharingHintHash" ma:index="11" nillable="true" ma:displayName="Sharing Hint Hash" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="92baac2b-0bf5-414c-80cd-6ea27a051d4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByUser" ma:index="14" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:internalName="LastSharedByUser" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByTime" ma:index="15" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:internalName="LastSharedByTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c442a1e3-1e61-4f8e-83e6-c318ef4c6175" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="17" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="21" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="22" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11622,8 +11618,8 @@
         <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
         <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1" ma:index="9" ma:displayName="Comments"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="13" ma:displayName="Keywords"/>
         <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -11709,26 +11705,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8169284-6018-4D57-A320-40F18C72BC36}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6567D3A7-653F-453A-912E-3563367B5F23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11744,10 +11721,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F83CFEB-79B3-4453-B164-B407632E4B21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF5AAB5-0DE3-4C7E-A33F-018EF418552E}"/>
 </file>
--- a/DecisionNG/Permissions V710.xlsx
+++ b/DecisionNG/Permissions V710.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varsha.Chitray\Documents\TestComplete 14 Projects\t\SR\DecisionNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Drive - RITA\WIP\7.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43493089-8CC0-4083-971C-A1B0C05EC98C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663DB650-D8E1-4D26-964B-051ADDC38134}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permission Groups" sheetId="11" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="320">
   <si>
     <t>ADMIN</t>
   </si>
@@ -989,19 +991,13 @@
   </si>
   <si>
     <t>Grants permission to unretire Deployment Descriptor</t>
-  </si>
-  <si>
-    <t>ADMIN_MONITORING</t>
-  </si>
-  <si>
-    <t>Grants permission to access DM Java Monitoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,12 +1015,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1187,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1240,10 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3450,8 +3436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFE11604-C411-4766-A0D7-C9B2072928E2}" name="Table4" displayName="Table4" ref="A1:AH134" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
-  <autoFilter ref="A1:AH134" xr:uid="{EE2AD02C-6C53-4914-9795-D14FAD2F7D2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFE11604-C411-4766-A0D7-C9B2072928E2}" name="Table4" displayName="Table4" ref="A1:AH133" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:AH133" xr:uid="{EE2AD02C-6C53-4914-9795-D14FAD2F7D2B}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{6884618F-0804-45D4-BBF3-CFC14A9DABC4}" name="Permissions" dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{3BDD6A53-3DAC-4ABD-B40B-A6B8991B586B}" name="Count" dataDxfId="59">
@@ -3496,6 +3482,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{696B5B4D-61D7-4397-AA3D-EB69BFED9106}" name="Table5" displayName="Table5" ref="A1:V32" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:V32" xr:uid="{544AA2C6-DD74-440E-821D-BF96BAA9907D}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{FF3DD6F5-3D8F-4DCD-9EA7-9EB496D5DCD5}" name="Permission Groups" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{7E23DCCD-114A-41AE-9E6D-EC7CB95DC8FA}" name="Count" dataDxfId="20">
@@ -3848,13 +3835,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531EFDF-FA4C-438D-BC4A-CA3EC34A6F8A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH134"/>
+  <dimension ref="A1:AH133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,12 +3985,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" ref="B2:B36" si="0">COUNTA(D2:AH2)</f>
+        <f t="shared" ref="B2:B35" si="0">COUNTA(D2:AH2)</f>
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4051,21 +4038,23 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="B3" s="8">
-        <f>COUNTA(D3:AH3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>321</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4089,9 +4078,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -4100,21 +4087,19 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4124,7 +4109,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -4147,14 +4134,14 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
@@ -4165,13 +4152,13 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -4194,27 +4181,27 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -4241,25 +4228,25 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -4288,14 +4275,14 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>60</v>
@@ -4304,9 +4291,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -4329,28 +4314,34 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -4374,35 +4365,33 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4431,14 +4420,14 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>60</v>
@@ -4449,9 +4438,7 @@
       <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4480,14 +4467,14 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>60</v>
@@ -4495,9 +4482,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4509,7 +4494,9 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -4527,14 +4514,14 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>60</v>
@@ -4554,10 +4541,10 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -4574,14 +4561,14 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>60</v>
@@ -4602,11 +4589,11 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -4621,14 +4608,14 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>60</v>
@@ -4648,12 +4635,12 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -4668,14 +4655,14 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>60</v>
@@ -4695,14 +4682,14 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -4715,14 +4702,14 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>60</v>
@@ -4732,7 +4719,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -4747,9 +4736,7 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -4762,14 +4749,14 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>60</v>
@@ -4779,10 +4766,10 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -4809,14 +4796,14 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTA(D19:AH19)</f>
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>60</v>
@@ -4827,9 +4814,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -4842,7 +4827,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -4856,14 +4843,14 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTA(D20:AH20)</f>
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>60</v>
@@ -4903,14 +4890,14 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="B21" s="8">
-        <f>COUNTA(D21:AH21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>60</v>
@@ -4922,7 +4909,9 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -4934,9 +4923,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -4950,14 +4937,14 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>60</v>
@@ -4967,11 +4954,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -4997,14 +4984,14 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>60</v>
@@ -5014,10 +5001,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -5044,14 +5031,14 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -5062,9 +5049,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -5081,7 +5066,9 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -5091,14 +5078,14 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -5110,7 +5097,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -5126,9 +5115,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
@@ -5138,14 +5125,14 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
@@ -5157,10 +5144,10 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -5185,14 +5172,14 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -5205,10 +5192,10 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -5232,14 +5219,14 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B28" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>60</v>
@@ -5279,14 +5266,14 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>60</v>
@@ -5296,13 +5283,13 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -5326,26 +5313,26 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B30" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -5357,7 +5344,9 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -5373,22 +5362,20 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5396,7 +5383,9 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -5404,9 +5393,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -5422,20 +5409,22 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5443,9 +5432,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -5459,7 +5446,9 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -5469,22 +5458,20 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B33" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5500,15 +5487,15 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
@@ -5518,14 +5505,14 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B34" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>60</v>
@@ -5547,10 +5534,10 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -5565,14 +5552,14 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B35" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>60</v>
@@ -5592,12 +5579,12 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -5612,14 +5599,14 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B36:B67" si="1">COUNTA(D36:AH36)</f>
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>60</v>
@@ -5659,20 +5646,22 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="B37" s="8">
-        <f t="shared" ref="B37:B68" si="1">COUNTA(D37:AH37)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -5686,9 +5675,7 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -5696,7 +5683,9 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -5706,14 +5695,14 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -5755,31 +5744,33 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -5792,9 +5783,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
@@ -5804,14 +5793,14 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B40" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>60</v>
@@ -5821,11 +5810,11 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
@@ -5853,14 +5842,14 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>60</v>
@@ -5870,18 +5859,16 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -5902,14 +5889,14 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>60</v>
@@ -5920,15 +5907,17 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P42" s="7"/>
-      <c r="Q42" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -5949,14 +5938,14 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B43" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>60</v>
@@ -5966,16 +5955,14 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
@@ -5998,14 +5985,14 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>60</v>
@@ -6015,14 +6002,14 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="O44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
@@ -6045,14 +6032,14 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -6067,9 +6054,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
@@ -6086,20 +6071,22 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
+      <c r="AF45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>60</v>
@@ -6114,7 +6101,9 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
@@ -6131,22 +6120,20 @@
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-      <c r="AF46" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>60</v>
@@ -6186,14 +6173,14 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="B48" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>60</v>
@@ -6204,7 +6191,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -6233,14 +6222,14 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>60</v>
@@ -6251,9 +6240,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -6282,14 +6269,14 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>60</v>
@@ -6329,14 +6316,14 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>60</v>
@@ -6376,14 +6363,14 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>60</v>
@@ -6423,14 +6410,14 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>60</v>
@@ -6441,13 +6428,13 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -6470,14 +6457,14 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>60</v>
@@ -6488,9 +6475,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -6508,7 +6493,9 @@
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
+      <c r="AC54" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
@@ -6517,14 +6504,14 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B55" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>60</v>
@@ -6544,7 +6531,9 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
+      <c r="T55" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
@@ -6553,9 +6542,7 @@
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
-      <c r="AC55" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
@@ -6564,14 +6551,14 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B56" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>60</v>
@@ -6586,14 +6573,14 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="O56" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
@@ -6611,14 +6598,14 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>60</v>
@@ -6658,14 +6645,14 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B58" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>60</v>
@@ -6705,14 +6692,14 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>60</v>
@@ -6752,14 +6739,14 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="B60" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>60</v>
@@ -6799,14 +6786,14 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B61" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>60</v>
@@ -6846,14 +6833,14 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B62" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>60</v>
@@ -6893,14 +6880,14 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="B63" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>60</v>
@@ -6915,10 +6902,10 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -6940,14 +6927,14 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="B64" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>60</v>
@@ -6963,9 +6950,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -6978,7 +6963,9 @@
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
+      <c r="AC64" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
@@ -6987,14 +6974,14 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>60</v>
@@ -7004,7 +6991,9 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -7023,9 +7012,7 @@
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
-      <c r="AC65" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
@@ -7034,14 +7021,14 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B66" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>60</v>
@@ -7051,9 +7038,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -7061,7 +7046,9 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
+      <c r="R66" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -7081,14 +7068,14 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B67" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>60</v>
@@ -7106,9 +7093,7 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -7118,7 +7103,9 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
@@ -7128,14 +7115,14 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B99" si="2">COUNTA(D68:AH68)</f>
         <v>2</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>60</v>
@@ -7175,29 +7162,35 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="B69" s="8">
-        <f t="shared" ref="B69:B100" si="2">COUNTA(D69:AH69)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
+      <c r="O69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
@@ -7205,15 +7198,21 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="W69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
+      <c r="Z69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AC69" s="7"/>
+      <c r="AC69" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
@@ -7222,35 +7221,29 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" s="8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
@@ -7258,21 +7251,15 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7" t="s">
         <v>60</v>
       </c>
       <c r="AA70" s="7"/>
-      <c r="AB70" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC70" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
@@ -7281,14 +7268,14 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>60</v>
@@ -7314,10 +7301,10 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
-      <c r="Z71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -7328,14 +7315,14 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B72" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>60</v>
@@ -7375,14 +7362,14 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>60</v>
@@ -7408,10 +7395,10 @@
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z73" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
@@ -7422,14 +7409,14 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>60</v>
@@ -7455,10 +7442,10 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
-      <c r="Z74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
@@ -7469,14 +7456,14 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B75" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>60</v>
@@ -7499,13 +7486,13 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
+      <c r="W75" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
-      <c r="AA75" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
@@ -7516,14 +7503,14 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B76" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>60</v>
@@ -7546,11 +7533,11 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
-      <c r="W76" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W76" s="7"/>
       <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
+      <c r="Y76" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
@@ -7563,14 +7550,14 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B77" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>60</v>
@@ -7610,14 +7597,14 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="B78" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>60</v>
@@ -7637,14 +7624,14 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
+      <c r="T78" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
-      <c r="Y78" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
@@ -7657,14 +7644,14 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B79" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>60</v>
@@ -7684,14 +7671,14 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
-      <c r="T79" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+      <c r="Y79" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
@@ -7704,14 +7691,14 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>60</v>
@@ -7734,11 +7721,11 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
+      <c r="W80" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X80" s="7"/>
-      <c r="Y80" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
@@ -7751,14 +7738,14 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B81" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>60</v>
@@ -7781,11 +7768,11 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
-      <c r="W81" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="W81" s="7"/>
       <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
+      <c r="Y81" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
@@ -7798,14 +7785,14 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="B82" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>60</v>
@@ -7816,7 +7803,9 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -7830,9 +7819,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
-      <c r="Y82" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
@@ -7845,14 +7832,14 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="B83" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>60</v>
@@ -7862,10 +7849,10 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -7892,14 +7879,14 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>60</v>
@@ -7909,10 +7896,10 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -7939,27 +7926,27 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -7986,23 +7973,23 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -8033,26 +8020,26 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="B87" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -8061,7 +8048,9 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -8080,14 +8069,14 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B88" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>60</v>
@@ -8097,9 +8086,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -8129,14 +8116,14 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>60</v>
@@ -8155,12 +8142,12 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
+      <c r="V89" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
@@ -8176,14 +8163,14 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>60</v>
@@ -8223,14 +8210,14 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B91" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>60</v>
@@ -8252,16 +8239,16 @@
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
-      <c r="AC91" s="7"/>
+      <c r="AC91" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
       <c r="AF91" s="7"/>
@@ -8270,14 +8257,14 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B92" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>60</v>
@@ -8317,14 +8304,14 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B93" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>60</v>
@@ -8347,15 +8334,15 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
+      <c r="W93" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="7"/>
-      <c r="AC93" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
       <c r="AF93" s="7"/>
@@ -8364,14 +8351,14 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B94" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>60</v>
@@ -8394,10 +8381,10 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
-      <c r="W94" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="X94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
@@ -8411,14 +8398,14 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>60</v>
@@ -8445,7 +8432,9 @@
       <c r="X95" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y95" s="7"/>
+      <c r="Y95" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="7"/>
@@ -8458,14 +8447,14 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B96" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>60</v>
@@ -8477,7 +8466,9 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="L96" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
@@ -8489,12 +8480,8 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
-      <c r="X96" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y96" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
       <c r="AB96" s="7"/>
@@ -8507,14 +8494,14 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B97" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>60</v>
@@ -8554,14 +8541,14 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>60</v>
@@ -8573,9 +8560,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
@@ -8590,7 +8575,9 @@
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
+      <c r="AA98" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
@@ -8601,14 +8588,14 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>60</v>
@@ -8648,14 +8635,14 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B100:B133" si="3">COUNTA(D100:AH100)</f>
         <v>2</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>60</v>
@@ -8681,10 +8668,10 @@
       <c r="W100" s="7"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z100" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA100" s="7"/>
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
@@ -8695,14 +8682,14 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B101" s="8">
-        <f t="shared" ref="B101:B134" si="3">COUNTA(D101:AH101)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>60</v>
@@ -8728,10 +8715,10 @@
       <c r="W101" s="7"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
-      <c r="Z101" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB101" s="7"/>
       <c r="AC101" s="7"/>
       <c r="AD101" s="7"/>
@@ -8742,14 +8729,14 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B102" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>60</v>
@@ -8775,10 +8762,10 @@
       <c r="W102" s="7"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z102" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA102" s="7"/>
       <c r="AB102" s="7"/>
       <c r="AC102" s="7"/>
       <c r="AD102" s="7"/>
@@ -8789,14 +8776,14 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>60</v>
@@ -8822,11 +8809,11 @@
       <c r="W103" s="7"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
-      <c r="Z103" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
+      <c r="AB103" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC103" s="7"/>
       <c r="AD103" s="7"/>
       <c r="AE103" s="7"/>
@@ -8836,14 +8823,14 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B104" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>60</v>
@@ -8883,14 +8870,14 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B105" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>60</v>
@@ -8930,14 +8917,14 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="B106" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>60</v>
@@ -8965,11 +8952,11 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
       <c r="AA106" s="7"/>
-      <c r="AB106" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB106" s="7"/>
       <c r="AC106" s="7"/>
-      <c r="AD106" s="7"/>
+      <c r="AD106" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AE106" s="7"/>
       <c r="AF106" s="7"/>
       <c r="AG106" s="7"/>
@@ -8977,14 +8964,14 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B107" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>60</v>
@@ -9014,71 +9001,71 @@
       <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
       <c r="AC107" s="7"/>
-      <c r="AD107" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AF107" s="7"/>
       <c r="AG107" s="7"/>
       <c r="AH107" s="7"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="7"/>
-      <c r="AD108" s="7"/>
-      <c r="AE108" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF108" s="7"/>
-      <c r="AG108" s="7"/>
-      <c r="AH108" s="7"/>
+    <row r="108" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="19">
+        <f t="shared" ref="B108" si="4">COUNTA(D108:AH108)</f>
+        <v>2</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="20"/>
+      <c r="AB108" s="20"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="20"/>
+      <c r="AE108" s="20"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="20"/>
     </row>
     <row r="109" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B109" s="19">
-        <f t="shared" ref="B109" si="4">COUNTA(D109:AH109)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D109" s="20" t="s">
         <v>60</v>
@@ -9088,9 +9075,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
-      <c r="J109" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
@@ -9114,65 +9099,67 @@
       <c r="AE109" s="20"/>
       <c r="AF109" s="20"/>
       <c r="AG109" s="20"/>
-      <c r="AH109" s="20"/>
-    </row>
-    <row r="110" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B110" s="19">
+      <c r="AH109" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="20"/>
-      <c r="W110" s="20"/>
-      <c r="X110" s="20"/>
-      <c r="Y110" s="20"/>
-      <c r="Z110" s="20"/>
-      <c r="AA110" s="20"/>
-      <c r="AB110" s="20"/>
-      <c r="AC110" s="20"/>
-      <c r="AD110" s="20"/>
-      <c r="AE110" s="20"/>
-      <c r="AF110" s="20"/>
-      <c r="AG110" s="20"/>
-      <c r="AH110" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="C110" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="7"/>
+      <c r="AC110" s="7"/>
+      <c r="AD110" s="7"/>
+      <c r="AE110" s="7"/>
+      <c r="AF110" s="7"/>
+      <c r="AG110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH110" s="7"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B111" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>60</v>
@@ -9212,14 +9199,14 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>60</v>
@@ -9246,27 +9233,27 @@
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
+      <c r="AA112" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB112" s="7"/>
       <c r="AC112" s="7"/>
       <c r="AD112" s="7"/>
       <c r="AE112" s="7"/>
       <c r="AF112" s="7"/>
-      <c r="AG112" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AG112" s="7"/>
       <c r="AH112" s="7"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B113" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>60</v>
@@ -9292,10 +9279,10 @@
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z113" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA113" s="7"/>
       <c r="AB113" s="7"/>
       <c r="AC113" s="7"/>
       <c r="AD113" s="7"/>
@@ -9306,14 +9293,14 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>60</v>
@@ -9339,10 +9326,10 @@
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
-      <c r="Z114" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AB114" s="7"/>
       <c r="AC114" s="7"/>
       <c r="AD114" s="7"/>
@@ -9353,21 +9340,23 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="B115" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -9387,9 +9376,7 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
-      <c r="AA115" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA115" s="7"/>
       <c r="AB115" s="7"/>
       <c r="AC115" s="7"/>
       <c r="AD115" s="7"/>
@@ -9400,14 +9387,14 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="B116" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>60</v>
@@ -9447,23 +9434,23 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F117" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -9494,23 +9481,23 @@
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B118" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -9541,23 +9528,23 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="B119" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -9588,23 +9575,23 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B120" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E120" s="7"/>
-      <c r="F120" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -9635,23 +9622,21 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="B121" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -9661,7 +9646,9 @@
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
+      <c r="Q121" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
@@ -9682,20 +9669,22 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="B122" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -9706,9 +9695,7 @@
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
-      <c r="Q122" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
@@ -9729,23 +9716,23 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B123" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -9776,26 +9763,28 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B124" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -9811,10 +9800,14 @@
       <c r="W124" s="7"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
-      <c r="Z124" s="7"/>
+      <c r="Z124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
-      <c r="AC124" s="7"/>
+      <c r="AC124" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD124" s="7"/>
       <c r="AE124" s="7"/>
       <c r="AF124" s="7"/>
@@ -9823,28 +9816,24 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="B125" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E125" s="7"/>
-      <c r="F125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
-      <c r="J125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -9860,9 +9849,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
-      <c r="Z125" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="Z125" s="7"/>
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
       <c r="AC125" s="7" t="s">
@@ -9876,20 +9863,22 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="B126" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -9912,9 +9901,7 @@
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
-      <c r="AC126" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC126" s="7"/>
       <c r="AD126" s="7"/>
       <c r="AE126" s="7"/>
       <c r="AF126" s="7"/>
@@ -9923,23 +9910,23 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B127" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="7"/>
-      <c r="F127" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
@@ -9970,23 +9957,23 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="B128" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F128" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -10017,23 +10004,23 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -10064,14 +10051,14 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B130" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>60</v>
@@ -10111,23 +10098,21 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B131" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -10148,7 +10133,9 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
       <c r="AA131" s="7"/>
-      <c r="AB131" s="7"/>
+      <c r="AB131" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AC131" s="7"/>
       <c r="AD131" s="7"/>
       <c r="AE131" s="7"/>
@@ -10158,14 +10145,14 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B132" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>60</v>
@@ -10205,21 +10192,23 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="B133" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="G133" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -10240,65 +10229,17 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
       <c r="AA133" s="7"/>
-      <c r="AB133" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC133" s="7"/>
+      <c r="AB133" s="7"/>
+      <c r="AC133" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AD133" s="7"/>
       <c r="AE133" s="7"/>
       <c r="AF133" s="7"/>
       <c r="AG133" s="7"/>
       <c r="AH133" s="7"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7"/>
-      <c r="T134" s="7"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
-      <c r="Y134" s="7"/>
-      <c r="Z134" s="7"/>
-      <c r="AA134" s="7"/>
-      <c r="AB134" s="7"/>
-      <c r="AC134" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD134" s="7"/>
-      <c r="AE134" s="7"/>
-      <c r="AF134" s="7"/>
-      <c r="AG134" s="7"/>
-      <c r="AH134" s="7"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10312,11 +10253,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11490,6 +11431,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11498,35 +11447,36 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5F9C98B0446524485B7B0793D0C592D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc764cdfd294f253170a8f2113b6a2af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbe8f951-a63a-42f1-b099-18567e90cdee" xmlns:ns3="7913f9c9-e70a-4013-af8e-9f05466768a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4145701771e9a9f0231b8fb8c94960c" ns2:_="" ns3:_="">
-    <xsd:import namespace="bbe8f951-a63a-42f1-b099-18567e90cdee"/>
-    <xsd:import namespace="7913f9c9-e70a-4013-af8e-9f05466768a3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF55106CB3AE5E418ACED55629FA4CAD" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c70cd941c6196a5e8e8d6e322e07c36">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20c07018-649f-4895-a695-502b96016c98" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7" xmlns:ns5="92baac2b-0bf5-414c-80cd-6ea27a051d4c" xmlns:ns7="c442a1e3-1e61-4f8e-83e6-c318ef4c6175" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd36e40bf8e0f246ba80e5602b2bb61" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns7:_="">
+    <xsd:import namespace="20c07018-649f-4895-a695-502b96016c98"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
+    <xsd:import namespace="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7"/>
+    <xsd:import namespace="92baac2b-0bf5-414c-80cd-6ea27a051d4c"/>
+    <xsd:import namespace="c442a1e3-1e61-4f8e-83e6-c318ef4c6175"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:IconOverlay" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns5:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns5:LastSharedByUser" minOccurs="0"/>
+                <xsd:element ref="ns5:LastSharedByTime" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns7:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11534,68 +11484,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbe8f951-a63a-42f1-b099-18567e90cdee" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20c07018-649f-4895-a695-502b96016c98" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7913f9c9-e70a-4013-af8e-9f05466768a3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -11614,11 +11506,103 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="IconOverlay" ma:index="10" nillable="true" ma:displayName="IconOverlay" ma:hidden="true" ma:internalName="IconOverlay">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8d9902c-5d8e-4a5d-92ae-eed5856e1bb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharingHintHash" ma:index="11" nillable="true" ma:displayName="Sharing Hint Hash" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="92baac2b-0bf5-414c-80cd-6ea27a051d4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByUser" ma:index="14" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:internalName="LastSharedByUser" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByTime" ma:index="15" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:internalName="LastSharedByTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c442a1e3-1e61-4f8e-83e6-c318ef4c6175" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="17" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="21" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="22" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11634,8 +11618,8 @@
         <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
         <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1" ma:index="9" ma:displayName="Comments"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="13" ma:displayName="Keywords"/>
         <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -11722,14 +11706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F83CFEB-79B3-4453-B164-B407632E4B21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6567D3A7-653F-453A-912E-3563367B5F23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11745,21 +11721,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8169284-6018-4D57-A320-40F18C72BC36}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F83CFEB-79B3-4453-B164-B407632E4B21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bbe8f951-a63a-42f1-b099-18567e90cdee"/>
-    <ds:schemaRef ds:uri="7913f9c9-e70a-4013-af8e-9f05466768a3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF5AAB5-0DE3-4C7E-A33F-018EF418552E}"/>
 </file>